--- a/biology/Botanique/Rubanier_émergé/Rubanier_émergé.xlsx
+++ b/biology/Botanique/Rubanier_émergé/Rubanier_émergé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rubanier_%C3%A9merg%C3%A9</t>
+          <t>Rubanier_émergé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sparganium emersum
-le Rubanier émergé (Sparganium emersum) est une espèce de plantes herbacées semi-aquatiques et plus précisément amphiphyte[1] puisqu'elle supporte d'avoir ses racines émergées. On la rencontre en particulier en bordure de plans d'eau à forte variation de niveau et sur les berges des bras morts et des rivières à faible courant[2].
+le Rubanier émergé (Sparganium emersum) est une espèce de plantes herbacées semi-aquatiques et plus précisément amphiphyte puisqu'elle supporte d'avoir ses racines émergées. On la rencontre en particulier en bordure de plans d'eau à forte variation de niveau et sur les berges des bras morts et des rivières à faible courant.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rubanier_%C3%A9merg%C3%A9</t>
+          <t>Rubanier_émergé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Autrefois dénommée Sparganium simplex[3], cette plante vivace mesure entre 20 et 80 cm de haut[4] dont la base est souvent immergée, bien que contrairement à d'autres plantes semi-aquatiques, elle supporte l'émersion de ses racines. Ses feuilles sont dressées et plus rarement flottantes que celles des autres Sparganium. L'inflorescence n'est pas ramifiée : un axe unique aux coudes multiples porte une série de capitules d'une taille généralement comprise entre 5 et 20 mm, les inférieurs pédonculés et séparés par des bractées. Les inflorescences mâles sont situées dans les parties supérieure et sommitale tandis que les femelles occupent la partie inférieure. Les fleurs sont vertes mais leur petite taille fait que les têtes mâles paraissent blanches (couleur du filet) et jaunes (couleur des étamines) et les femelles blanches (couleur du pistil).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Autrefois dénommée Sparganium simplex, cette plante vivace mesure entre 20 et 80 cm de haut dont la base est souvent immergée, bien que contrairement à d'autres plantes semi-aquatiques, elle supporte l'émersion de ses racines. Ses feuilles sont dressées et plus rarement flottantes que celles des autres Sparganium. L'inflorescence n'est pas ramifiée : un axe unique aux coudes multiples porte une série de capitules d'une taille généralement comprise entre 5 et 20 mm, les inférieurs pédonculés et séparés par des bractées. Les inflorescences mâles sont situées dans les parties supérieure et sommitale tandis que les femelles occupent la partie inférieure. Les fleurs sont vertes mais leur petite taille fait que les têtes mâles paraissent blanches (couleur du filet) et jaunes (couleur des étamines) et les femelles blanches (couleur du pistil).
 La floraison a lieu entre juin et septembre.
 Les fruits sont des akènes en forme de fuseau, larges de 2 mm. Ils sont disséminées par les eaux (hydrochorie) auprès desquelles pousse la plante mère.
 La plupart des organes aériens disparaissent à la mauvaise saison pour se reconstituer au printemps à partir des rhizomes.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rubanier_%C3%A9merg%C3%A9</t>
+          <t>Rubanier_émergé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Habitat et distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Rubanier émergé est présent dans presque toute la France métropolitaine.
 Son aire de répartition couvre l'Europe, l'Asie et l'Amérique du Nord.
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Rubanier_%C3%A9merg%C3%A9</t>
+          <t>Rubanier_émergé</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,19 +594,90 @@
           <t>Statut</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>En France cette espèce est protégée sur le territoire de l'ancienne région Rhône-Alpes.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France cette espèce est protégée sur le territoire de l'ancienne région Rhône-Alpes.
 Elle constitue une espèce indicatrice pour les habitats suivants :
-codes cahiers d'habitats
-3150-1 : Plans d'eau eutrophes avec végétation enracinée avec ou sans feuilles flottantes
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Rubanier_émergé</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rubanier_%C3%A9merg%C3%A9</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Statut</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>codes cahiers d'habitats</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>3150-1 : Plans d'eau eutrophes avec végétation enracinée avec ou sans feuilles flottantes
 3150-4 : Rivières, canaux et fossés eutrophes des marais naturels
 3260-3 : Rivières à Renoncules oligo-mésotrophes à méso-eutrophes, acides à neutres
 3260-5 : Rivières eutrophes (d'aval), neutres à basiques, dominées par des Renoncules et des Potamots
 3260-6 : Ruisseaux et petites rivières eutrophes neutres à basiques
-3290-2 : Aval des rivières méditerranéennes intermittentes
-codes EUNIS
-C2.1B : Végétations eutrophes des ruisseaux de sources
+3290-2 : Aval des rivières méditerranéennes intermittentes</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Rubanier_émergé</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rubanier_%C3%A9merg%C3%A9</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Statut</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>codes EUNIS</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>C2.1B : Végétations eutrophes des ruisseaux de sources
 C2.28 : Végétations eutrophes des cours d'eau à débit rapide
 C2.34 : Végétations eutrophes des cours d'eau à débit lent
 C2.44 : Végétations eutrophes des cours d'eau tidaux</t>
